--- a/seguranca_alimentar_mes.xlsx
+++ b/seguranca_alimentar_mes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\ajuste_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\CREAS\creas_r\gith_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A67B58B-87F8-4048-9285-F68475F3A88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FCD4CF-2D87-4E11-8EC4-53F8969296AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>jan</t>
   </si>
@@ -71,10 +71,7 @@
     <t>dez</t>
   </si>
   <si>
-    <t>kit</t>
-  </si>
-  <si>
-    <t>refeicao_kit</t>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -206,8 +203,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>131296</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2446020" cy="7620"/>
@@ -224,7 +221,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1798171" y="200025"/>
+          <a:off x="1666875" y="400050"/>
           <a:ext cx="2446020" cy="7620"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2446020" cy="7620"/>
@@ -389,8 +386,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>131296</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2446020" cy="7620"/>
@@ -407,7 +404,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1798171" y="200025"/>
+          <a:off x="1666875" y="400050"/>
           <a:ext cx="2446020" cy="7620"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2446020" cy="7620"/>
@@ -572,8 +569,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>131296</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2446020" cy="7620"/>
@@ -590,7 +587,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1798171" y="200025"/>
+          <a:off x="1666875" y="400050"/>
           <a:ext cx="2446020" cy="7620"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2446020" cy="7620"/>
@@ -750,82 +747,6 @@
         </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>135093</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2438400" cy="11430"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Shape 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2438400" cy="11430"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path w="2438400" h="11430">
-              <a:moveTo>
-                <a:pt x="2438400" y="7620"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="7620"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="11430"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2438400" y="11430"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2438400" y="7620"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-            <a:path w="2438400" h="11430">
-              <a:moveTo>
-                <a:pt x="2438400" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="3810"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2438400" y="3810"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2438400" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="333333"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -1118,16 +1039,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A2:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
     <col min="3" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1141,105 +1062,89 @@
     <col min="15" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7">
-        <v>35765</v>
-      </c>
-      <c r="D2" s="7">
-        <v>56460</v>
-      </c>
-      <c r="E2" s="7">
-        <v>64945</v>
-      </c>
-      <c r="F2" s="7">
-        <v>60705</v>
-      </c>
-      <c r="G2" s="7">
-        <v>64475</v>
-      </c>
-      <c r="H2" s="7">
-        <v>61255</v>
-      </c>
-      <c r="I2" s="7">
-        <v>62305</v>
-      </c>
-      <c r="J2" s="7">
-        <v>57935</v>
-      </c>
-      <c r="K2" s="7">
-        <v>65350</v>
-      </c>
-      <c r="L2" s="7">
-        <v>66110</v>
-      </c>
-      <c r="M2" s="7">
-        <v>62025</v>
-      </c>
-      <c r="N2" s="7">
-        <v>63050</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="B3" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="7">
+        <v>35765</v>
+      </c>
+      <c r="D3" s="7">
+        <v>56460</v>
+      </c>
+      <c r="E3" s="7">
+        <v>64945</v>
+      </c>
+      <c r="F3" s="7">
+        <v>60705</v>
+      </c>
+      <c r="G3" s="7">
+        <v>64475</v>
+      </c>
+      <c r="H3" s="7">
+        <v>61255</v>
+      </c>
+      <c r="I3" s="7">
+        <v>62305</v>
+      </c>
+      <c r="J3" s="7">
+        <v>57935</v>
+      </c>
+      <c r="K3" s="7">
+        <v>65350</v>
+      </c>
+      <c r="L3" s="7">
+        <v>66110</v>
+      </c>
+      <c r="M3" s="7">
+        <v>62025</v>
+      </c>
+      <c r="N3" s="7">
+        <v>63050</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
@@ -1305,6 +1210,22 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
